--- a/pred_ohlcv/54_21/2019-11-02 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 WTC ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-24896.73010574444</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-14004.66660574444</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-14044.66660574444</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-14013.66660574444</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-13008.66660574444</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-14408.66660574444</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-13185.80720574444</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-13766.42720574444</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-14406.82110574444</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-14831.47710574444</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-02 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 WTC ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-24896.73010574444</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-14004.66660574444</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-14044.66660574444</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-14013.66660574444</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-13008.66660574444</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-14408.66660574444</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-13185.80720574444</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-13628.93810574444</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-13631.93810574444</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-14831.47710574444</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
